--- a/Aspire.Angular/StatusReport.xlsx
+++ b/Aspire.Angular/StatusReport.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8000" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="8000"/>
   </bookViews>
   <sheets>
     <sheet name="UI Tasks - All Version" sheetId="1" r:id="rId1"/>
     <sheet name="All Version -UI  Know Issues" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UI Tasks - All Version'!$A$1:$R$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Feature</t>
   </si>
@@ -48,6 +51,15 @@
     <t>Started Date</t>
   </si>
   <si>
+    <t>Completion (%)</t>
+  </si>
+  <si>
+    <t>Pending Remarks</t>
+  </si>
+  <si>
+    <t>Target End Date</t>
+  </si>
+  <si>
     <t>End Date</t>
   </si>
   <si>
@@ -69,18 +81,40 @@
     <t>Implement Versions List Grid</t>
   </si>
   <si>
+    <t>Partially Done</t>
+  </si>
+  <si>
+    <t>Pending Integration with Backend API
+1. RetrieveProjectDetails by Project Id, will return Version List, Project Metdata if versions list available
+else will return Empty Versions List Template
+2. Implement Copy Functionality, Backend API integration, when click it will trigger Backend API, then copy the selected Version and return the updated the List
+3. Comment Functionality [TBD]</t>
+  </si>
+  <si>
+    <t>Pending Backend Completion</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Implement Version Detail Card</t>
+  </si>
+  <si>
+    <t>Pending to details from the Backend API</t>
+  </si>
+  <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>Implement Version Detail Card</t>
+    <t>Version Details Page [Scheduling]</t>
   </si>
   <si>
     <t>Implement All Version To Version Details Intermdeiate Transistion Page</t>
   </si>
   <si>
+    <t xml:space="preserve">This is a common functionality which is used by the other modules also. So implement should be a configurable common comoponent </t>
+  </si>
+  <si>
     <t>Done</t>
   </si>
   <si>
@@ -90,7 +124,7 @@
     <t>Hold</t>
   </si>
   <si>
-    <t>Version Details Page [Scheduling]</t>
+    <t>Implement Empty State Page and Functionality</t>
   </si>
   <si>
     <t>Implement Scheduling/ Task Grid</t>
@@ -144,7 +178,7 @@
     <t>1. Duplicate selected rows [deep clone]
 2. Place the duplicate at the bottom of each selection 
 ex: if select multiple parent nodes, then duplicate each row at the bottom of the Task Grid, following the sequence
-if select Sub Tasks, duplicate the Sub Tasks following the sequence</t>
+ONLY DUPLICATE PARENT NODES [NOT SUB TASKS]</t>
   </si>
   <si>
     <t>Delete Rows</t>
@@ -185,6 +219,12 @@
     <t>Advisory Notes</t>
   </si>
   <si>
+    <t>Task Table Funnel Filtering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This features is not available in PrimeNg Tree Table.Thus needs to implement custom functionality </t>
+  </si>
+  <si>
     <t>Save</t>
   </si>
   <si>
@@ -192,7 +232,25 @@
 2. Capture only the dirty records from the main source [#####] and send to the BE for save</t>
   </si>
   <si>
+    <t xml:space="preserve">Merge To DEV </t>
+  </si>
+  <si>
     <t>Resource Page [Modal]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource Page Modal </t>
+  </si>
+  <si>
+    <t>Cash Section</t>
+  </si>
+  <si>
+    <t>Cash Component UI [Pixel Perfect]</t>
+  </si>
+  <si>
+    <t>Cash Detail Retrieval Func</t>
+  </si>
+  <si>
+    <t>Cash Detail Save Func</t>
   </si>
 </sst>
 </file>
@@ -373,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,12 +584,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -597,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -615,6 +667,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -744,7 +833,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,34 +845,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,66 +920,129 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -957,7 +1109,14 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1188,25 +1347,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstColumn" dxfId="7"/>
-      <tableStyleElement type="lastColumn" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="totalRow" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
+      <tableStyleElement type="pageFieldValues" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1475,447 +1634,719 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.5454545454545" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="4" width="28.4545454545455" style="1" customWidth="1"/>
-    <col min="5" max="7" width="24.3636363636364" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.6363636363636" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.9090909090909" customWidth="1"/>
-    <col min="15" max="15" width="24.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="16.5454545454545" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="4" width="28.4545454545455" style="2" customWidth="1"/>
+    <col min="5" max="6" width="24.3636363636364" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.3636363636364" style="3" customWidth="1"/>
+    <col min="8" max="10" width="24.3636363636364" style="2" customWidth="1"/>
+    <col min="11" max="11" width="45.6363636363636" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.9090909090909" customWidth="1"/>
+    <col min="18" max="18" width="24.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="2" ht="290" spans="1:18">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8">
         <v>45751</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="7"/>
-      <c r="O2" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="7"/>
-      <c r="O3" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="43.5" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="G2" s="9">
+        <v>70</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="26"/>
+      <c r="R2" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:18">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="O4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="29" spans="1:15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="F3" s="8">
+        <v>45754</v>
+      </c>
+      <c r="G3" s="10">
+        <v>90</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="26"/>
+      <c r="R3" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="87" spans="1:18">
+      <c r="A4" s="7"/>
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45755</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8">
+        <v>45756</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="26"/>
+      <c r="R4" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="29" spans="1:18">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8">
         <v>45751</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
-      <c r="O5" s="11" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="8">
+        <v>45754</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="26"/>
+      <c r="R5" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="87" spans="1:18">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="8">
+        <v>45754</v>
+      </c>
+      <c r="G6" s="10">
+        <v>100</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45754</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="26"/>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="29" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8">
+        <v>45748</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>45749</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8">
+        <v>45749</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
+        <v>45750</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" ht="58" spans="1:12">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="8">
+        <v>45748</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>45749</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" ht="29" spans="1:12">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8">
+        <v>45748</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>45748</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" ht="87" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45750</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8">
+        <v>45750</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" ht="43.5" spans="1:12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" ht="29" spans="1:9">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F12" s="8">
+        <v>45755</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8">
+        <v>45756</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="8">
+        <v>45756</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8">
+        <v>45757</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" ht="29" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="8">
+        <v>45751</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="8">
+        <v>45754</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" ht="101.5" spans="1:12">
+      <c r="A15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="8">
+        <v>45751</v>
+      </c>
+      <c r="G15" s="10">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="8">
+        <v>45754</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" ht="58" spans="1:12">
+      <c r="A16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45749</v>
+      </c>
+      <c r="G16" s="10">
+        <v>100</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
+        <v>45750</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" ht="116" spans="1:12">
+      <c r="A17" s="7"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="8">
+        <v>45756</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="8">
+        <v>45758</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" ht="101.5" spans="1:12">
+      <c r="A18" s="7"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8">
+        <v>45756</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="8">
+        <v>45758</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" ht="29" spans="1:12">
+      <c r="A21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" ht="72.5" spans="1:12">
+      <c r="A22" s="7"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5">
-        <v>45748</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45749</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5">
-        <v>45749</v>
-      </c>
-      <c r="G7" s="5">
-        <v>45750</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" ht="58" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5">
-        <v>45748</v>
-      </c>
-      <c r="G8" s="5">
-        <v>45749</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" ht="29" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5">
-        <v>45748</v>
-      </c>
-      <c r="G9" s="5">
-        <v>45748</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" ht="87" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5">
-        <v>45750</v>
-      </c>
-      <c r="G10" s="5">
-        <v>45750</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" ht="43.5" spans="1:9">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" ht="29" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" ht="116" spans="1:9">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" ht="58" spans="1:9">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5">
-        <v>45749</v>
-      </c>
-      <c r="G15" s="5">
-        <v>45750</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" ht="116" spans="1:9">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" ht="101.5" spans="1:9">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" ht="72.5" spans="1:9">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="7"/>
+      <c r="F22" s="8">
+        <v>45754</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="16">
+        <v>45755</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16">
+        <v>45755</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="29" spans="1:11">
+      <c r="A25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:11">
+      <c r="A26" s="22"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:11">
+      <c r="A27" s="22"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:11">
+      <c r="A28" s="22"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A21"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B4:B24"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <conditionalFormatting sqref="E$1:E$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Partially Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"To Do"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5 F6 F7 G7 F8 G8 F9 G9 F10 G10 F15 G15 F1:F4 F11:F14 F16:F1048576 G1:G6 G11:G14 G16:G1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E8 E9:E1048576">
-      <formula1>$O$2:$O$5</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 G3:H3 I3 I4 J5 F6 G6:I6 J6 F13 F14 F15 J15 F18 G18:H18 I18 F21 G21:I21 J21 F22 G22:I22 J22 F23 G23:H23 I23 J23 F1:F2 F4:F5 F7:F12 F16:F17 F19:F20 F24:F1048576 J1:J4 J7:J14 J16:J20 J24:J1048576 G4:H5 G1:I2 G19:I20 G7:I17 G24:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E1:E22 E24:E1048576">
+      <formula1>$R$2:$R$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1928,7 +2359,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/Aspire.Angular/StatusReport.xlsx
+++ b/Aspire.Angular/StatusReport.xlsx
@@ -957,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,9 +1001,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1012,34 +1009,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1636,10 +1609,10 @@
   <sheetPr/>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1689,7 +1662,7 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
       <c r="R1" t="s">
@@ -1724,8 +1697,8 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="26"/>
-      <c r="R2" s="29" t="s">
+      <c r="L2" s="1"/>
+      <c r="R2" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1753,8 +1726,8 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="26"/>
-      <c r="R3" s="30" t="s">
+      <c r="L3" s="1"/>
+      <c r="R3" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1782,8 +1755,8 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="26"/>
-      <c r="R4" s="31" t="s">
+      <c r="L4" s="1"/>
+      <c r="R4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1806,8 +1779,8 @@
         <v>45754</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="26"/>
-      <c r="R5" s="32" t="s">
+      <c r="L5" s="1"/>
+      <c r="R5" s="23" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1835,12 +1808,12 @@
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="26"/>
+      <c r="L6" s="1"/>
       <c r="R6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="29" spans="1:12">
+    <row r="7" spans="1:12">
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
@@ -1862,7 +1835,7 @@
         <v>45749</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="26"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="7"/>
@@ -1884,7 +1857,7 @@
         <v>45750</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="26"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" ht="58" spans="1:12">
       <c r="A9" s="7"/>
@@ -1908,7 +1881,7 @@
       <c r="K9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" ht="29" spans="1:12">
       <c r="A10" s="7"/>
@@ -1930,7 +1903,7 @@
         <v>45748</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="26"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" ht="87" spans="1:12">
       <c r="A11" s="7"/>
@@ -1954,7 +1927,7 @@
       <c r="K11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="26"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" ht="43.5" spans="1:12">
       <c r="A12" s="7"/>
@@ -1978,7 +1951,7 @@
       <c r="K12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7"/>
@@ -2000,7 +1973,7 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="26"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" ht="29" spans="1:12">
       <c r="A14" s="7"/>
@@ -2026,7 +1999,7 @@
       <c r="K14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" ht="101.5" spans="1:12">
       <c r="A15" s="7"/>
@@ -2052,7 +2025,7 @@
       <c r="K15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" ht="58" spans="1:12">
       <c r="A16" s="7"/>
@@ -2078,7 +2051,7 @@
       <c r="K16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="26"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" ht="116" spans="1:12">
       <c r="A17" s="7"/>
@@ -2102,7 +2075,7 @@
       <c r="K17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="26"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" ht="101.5" spans="1:12">
       <c r="A18" s="7"/>
@@ -2126,7 +2099,7 @@
       <c r="K18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="26"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7"/>
@@ -2146,7 +2119,7 @@
       <c r="K19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="26"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7"/>
@@ -2164,7 +2137,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="26"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" ht="29" spans="1:12">
       <c r="A21" s="7"/>
@@ -2184,7 +2157,7 @@
       <c r="K21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="26"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" ht="72.5" spans="1:12">
       <c r="A22" s="7"/>
@@ -2206,121 +2179,128 @@
       <c r="K22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="26"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>45755</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16">
+      <c r="G23" s="16"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15">
         <v>45755</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="27"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="28"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="29" spans="1:11">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="F25" s="15">
+        <v>45757</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="8">
+        <v>45758</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:11">
-      <c r="A26" s="22"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:11">
-      <c r="A27" s="22"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:11">
-      <c r="A28" s="22"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:R28" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="B4:B24"/>
@@ -2344,8 +2324,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 G3:H3 I3 I4 J5 F6 G6:I6 J6 F13 F14 F15 J15 F18 G18:H18 I18 F21 G21:I21 J21 F22 G22:I22 J22 F23 G23:H23 I23 J23 F1:F2 F4:F5 F7:F12 F16:F17 F19:F20 F24:F1048576 J1:J4 J7:J14 J16:J20 J24:J1048576 G4:H5 G1:I2 G19:I20 G7:I17 G24:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E1:E22 E24:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:I3 I4 G18:I18 G23:I23 F25 F26 F27 F4:F24 F28:F1048576 J$1:J$1048576 F1:I2 G4:H5 G6:I17 G19:I22 G24:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>$R$2:$R$6</formula1>
     </dataValidation>
   </dataValidations>
